--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data_Engineering\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C8A6F5-A2F8-4B40-AA60-3FF932098484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="104">
   <si>
     <t>Day</t>
   </si>
@@ -323,13 +329,16 @@
   </si>
   <si>
     <t>Not Started</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,13 +401,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -436,7 +453,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -470,6 +487,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -504,9 +522,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -679,14 +698,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -711,10 +736,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -728,7 +753,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -742,7 +767,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -756,7 +781,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -770,7 +795,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -784,7 +809,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -798,7 +823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -812,7 +837,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -826,7 +851,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -840,7 +865,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -854,7 +879,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -868,7 +893,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -882,7 +907,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -896,7 +921,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -910,7 +935,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -924,7 +949,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -938,7 +963,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -952,7 +977,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -966,7 +991,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -980,7 +1005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -994,7 +1019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1008,7 +1033,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1022,7 +1047,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1036,7 +1061,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1050,7 +1075,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1064,7 +1089,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1078,7 +1103,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1092,7 +1117,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1106,7 +1131,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1120,7 +1145,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1134,7 +1159,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1148,7 +1173,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1162,7 +1187,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1176,7 +1201,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1190,7 +1215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1204,7 +1229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1218,7 +1243,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1232,7 +1257,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1246,7 +1271,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1260,7 +1285,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1274,7 +1299,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1288,7 +1313,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1302,7 +1327,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1316,7 +1341,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1330,7 +1355,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1344,7 +1369,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1358,7 +1383,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1372,7 +1397,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1386,7 +1411,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1400,7 +1425,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1414,7 +1439,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1428,7 +1453,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1442,7 +1467,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1456,7 +1481,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1470,7 +1495,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1484,7 +1509,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1498,7 +1523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1512,7 +1537,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1526,7 +1551,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1540,7 +1565,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1554,7 +1579,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1568,7 +1593,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1582,7 +1607,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1596,7 +1621,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1610,7 +1635,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1624,7 +1649,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1638,7 +1663,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1652,7 +1677,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1666,7 +1691,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1680,7 +1705,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1694,7 +1719,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1708,7 +1733,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1722,7 +1747,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1736,7 +1761,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1750,7 +1775,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1764,7 +1789,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1778,7 +1803,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1792,7 +1817,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1806,7 +1831,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1820,7 +1845,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1834,7 +1859,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1848,7 +1873,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1862,7 +1887,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1876,7 +1901,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1890,7 +1915,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1904,7 +1929,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1918,7 +1943,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1932,7 +1957,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1946,7 +1971,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C8A6F5-A2F8-4B40-AA60-3FF932098484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A257365-0A5F-473F-8091-FEFA5B4F2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="105">
   <si>
     <t>Day</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>completed</t>
   </si>
 </sst>
 </file>
@@ -702,12 +705,13 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -750,7 +754,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -764,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A257365-0A5F-473F-8091-FEFA5B4F2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B08A13-C3F1-44A4-B723-F89075C85A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,7 +705,7 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +782,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -796,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B08A13-C3F1-44A4-B723-F89075C85A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123788D3-1ADC-4449-8F8F-6B71E7AD023C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,12 +705,12 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
     <col min="3" max="3" width="57.6640625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
@@ -810,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
